--- a/timings.xlsx
+++ b/timings.xlsx
@@ -20,12 +20,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t xml:space="preserve">total nodes</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+  <si>
+    <t xml:space="preserve">total DAG nodes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-core linear path traversal (seconds)</t>
   </si>
   <si>
     <t xml:space="preserve">2-core linear path traversal (seconds)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3-core linear path traversal (seconds)</t>
   </si>
   <si>
     <t xml:space="preserve">4-core linear path traversal (seconds)</t>
@@ -35,8 +41,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -110,7 +117,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -119,11 +126,15 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -144,38 +155,47 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
+      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="1" width="44.32"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="2" style="1" width="44.32"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
         <v>100</v>
       </c>
-      <c r="B3" s="1" t="n">
+      <c r="B3" s="3" t="n">
+        <v>9.6E-005</v>
+      </c>
+      <c r="C3" s="1" t="n">
         <v>0.000296</v>
       </c>
-      <c r="C3" s="1" t="n">
+      <c r="E3" s="1" t="n">
         <v>0.007393</v>
       </c>
     </row>
@@ -183,10 +203,13 @@
       <c r="A4" s="0" t="n">
         <v>200</v>
       </c>
-      <c r="B4" s="1" t="n">
+      <c r="B4" s="4" t="n">
+        <v>0.000122</v>
+      </c>
+      <c r="C4" s="1" t="n">
         <v>0.002277</v>
       </c>
-      <c r="C4" s="1" t="n">
+      <c r="E4" s="1" t="n">
         <v>28</v>
       </c>
     </row>
@@ -194,7 +217,10 @@
       <c r="A5" s="0" t="n">
         <v>300</v>
       </c>
-      <c r="B5" s="1" t="n">
+      <c r="B5" s="4" t="n">
+        <v>0.000148</v>
+      </c>
+      <c r="C5" s="1" t="n">
         <v>0.037</v>
       </c>
     </row>
@@ -202,7 +228,10 @@
       <c r="A6" s="0" t="n">
         <v>400</v>
       </c>
-      <c r="B6" s="1" t="n">
+      <c r="B6" s="4" t="n">
+        <v>0.000132</v>
+      </c>
+      <c r="C6" s="1" t="n">
         <v>0.167</v>
       </c>
     </row>
@@ -210,7 +239,10 @@
       <c r="A7" s="0" t="n">
         <v>500</v>
       </c>
-      <c r="B7" s="1" t="n">
+      <c r="B7" s="4" t="n">
+        <v>0.000151</v>
+      </c>
+      <c r="C7" s="1" t="n">
         <v>1.449</v>
       </c>
     </row>
@@ -218,9 +250,15 @@
       <c r="A8" s="0" t="n">
         <v>600</v>
       </c>
-      <c r="B8" s="1" t="n">
+      <c r="B8" s="4" t="n">
+        <v>0.00018</v>
+      </c>
+      <c r="C8" s="1" t="n">
         <v>27</v>
       </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="4"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/timings.xlsx
+++ b/timings.xlsx
@@ -158,7 +158,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
+      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -195,6 +195,9 @@
       <c r="C3" s="1" t="n">
         <v>0.000296</v>
       </c>
+      <c r="D3" s="1" t="n">
+        <v>0.00183</v>
+      </c>
       <c r="E3" s="1" t="n">
         <v>0.007393</v>
       </c>
@@ -209,6 +212,9 @@
       <c r="C4" s="1" t="n">
         <v>0.002277</v>
       </c>
+      <c r="D4" s="1" t="n">
+        <v>0.54</v>
+      </c>
       <c r="E4" s="1" t="n">
         <v>28</v>
       </c>
@@ -222,6 +228,9 @@
       </c>
       <c r="C5" s="1" t="n">
         <v>0.037</v>
+      </c>
+      <c r="D5" s="1" t="n">
+        <v>48</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/timings.xlsx
+++ b/timings.xlsx
@@ -20,7 +20,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+  <si>
+    <t xml:space="preserve">DAG exit point pre-computation</t>
+  </si>
   <si>
     <t xml:space="preserve">total DAG nodes</t>
   </si>
@@ -117,13 +120,17 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -155,15 +162,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
+      <selection pane="topLeft" activeCell="A14" activeCellId="0" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="43.77"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="2" style="1" width="44.32"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="11.52"/>
   </cols>
@@ -172,102 +179,111 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="B3" s="3" t="n">
-        <v>9.6E-005</v>
-      </c>
-      <c r="C3" s="1" t="n">
-        <v>0.000296</v>
-      </c>
-      <c r="D3" s="1" t="n">
-        <v>0.00183</v>
-      </c>
-      <c r="E3" s="1" t="n">
-        <v>0.007393</v>
+      <c r="E2" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0.000122</v>
+        <v>9.6E-005</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>0.002277</v>
+        <v>0.000296</v>
       </c>
       <c r="D4" s="1" t="n">
-        <v>0.54</v>
+        <v>0.00183</v>
       </c>
       <c r="E4" s="1" t="n">
-        <v>28</v>
+        <v>0.007393</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
-        <v>300</v>
-      </c>
-      <c r="B5" s="4" t="n">
-        <v>0.000148</v>
+        <v>200</v>
+      </c>
+      <c r="B5" s="5" t="n">
+        <v>0.000122</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>0.037</v>
+        <v>0.002277</v>
       </c>
       <c r="D5" s="1" t="n">
-        <v>48</v>
+        <v>0.54</v>
+      </c>
+      <c r="E5" s="1" t="n">
+        <v>28</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
-        <v>400</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>0.000132</v>
+        <v>300</v>
+      </c>
+      <c r="B6" s="5" t="n">
+        <v>0.000148</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>0.167</v>
+        <v>0.037</v>
+      </c>
+      <c r="D6" s="1" t="n">
+        <v>48</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
-        <v>500</v>
-      </c>
-      <c r="B7" s="4" t="n">
-        <v>0.000151</v>
+        <v>400</v>
+      </c>
+      <c r="B7" s="5" t="n">
+        <v>0.000132</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>1.449</v>
+        <v>0.167</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="B8" s="5" t="n">
+        <v>0.000151</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>1.449</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
         <v>600</v>
       </c>
-      <c r="B8" s="4" t="n">
+      <c r="B9" s="5" t="n">
         <v>0.00018</v>
       </c>
-      <c r="C8" s="1" t="n">
+      <c r="C9" s="1" t="n">
         <v>27</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="4"/>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="5"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/timings.xlsx
+++ b/timings.xlsx
@@ -20,9 +20,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t xml:space="preserve">DAG exit point pre-computation</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+  <si>
+    <t xml:space="preserve">DAG exit point pre-computation with RANDOM_BUCKET_SIZE = 5</t>
   </si>
   <si>
     <t xml:space="preserve">total DAG nodes</t>
@@ -38,6 +38,9 @@
   </si>
   <si>
     <t xml:space="preserve">4-core linear path traversal (seconds)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(too long)</t>
   </si>
 </sst>
 </file>
@@ -120,7 +123,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -138,10 +141,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -162,16 +161,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A14" activeCellId="0" sqref="A14"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="43.77"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="2" style="1" width="44.32"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="34.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="44.32"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="36.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="37.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="40.29"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="11.52"/>
   </cols>
   <sheetData>
@@ -201,89 +203,92 @@
         <v>5</v>
       </c>
     </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="B3" s="4" t="n">
+        <v>9.6E-005</v>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>0.000296</v>
+      </c>
+      <c r="D3" s="1" t="n">
+        <v>0.00183</v>
+      </c>
+      <c r="E3" s="1" t="n">
+        <v>0.007393</v>
+      </c>
+    </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="B4" s="4" t="n">
-        <v>9.6E-005</v>
+        <v>200</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>0.000122</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>0.000296</v>
+        <v>0.002277</v>
       </c>
       <c r="D4" s="1" t="n">
-        <v>0.00183</v>
+        <v>0.54</v>
       </c>
       <c r="E4" s="1" t="n">
-        <v>0.007393</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
-        <v>200</v>
-      </c>
-      <c r="B5" s="5" t="n">
-        <v>0.000122</v>
+        <v>300</v>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>0.000148</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>0.002277</v>
+        <v>0.037</v>
       </c>
       <c r="D5" s="1" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="E5" s="1" t="n">
-        <v>28</v>
+        <v>48</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
-        <v>300</v>
-      </c>
-      <c r="B6" s="5" t="n">
-        <v>0.000148</v>
+        <v>400</v>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>0.000132</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>0.037</v>
-      </c>
-      <c r="D6" s="1" t="n">
-        <v>48</v>
+        <v>0.167</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
-        <v>400</v>
-      </c>
-      <c r="B7" s="5" t="n">
-        <v>0.000132</v>
+        <v>500</v>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>0.000151</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>0.167</v>
+        <v>1.449</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="n">
-        <v>500</v>
-      </c>
-      <c r="B8" s="5" t="n">
-        <v>0.000151</v>
+        <v>600</v>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>0.00018</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>1.449</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
-        <v>600</v>
-      </c>
-      <c r="B9" s="5" t="n">
-        <v>0.00018</v>
-      </c>
-      <c r="C9" s="1" t="n">
         <v>27</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="5"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/timings.xlsx
+++ b/timings.xlsx
@@ -164,7 +164,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:E8"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
